--- a/Assets/Data/Table/Convert/Stat_PlayerStat.xlsx
+++ b/Assets/Data/Table/Convert/Stat_PlayerStat.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEACD795-F9EA-48E9-BA19-4CC673E7BE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2A5F53-A234-4CCE-92EB-29F6FFFF78FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerStat" sheetId="12" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PlayerStat!$A$2:$I$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PlayerStat!$A$2:$I$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="263">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,771 +160,820 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Unit.
+    <t>#</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>MaxHealItem_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealItem_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorGrade_Original</t>
+  </si>
+  <si>
+    <t>상대의 공격을 무시할 수 있는 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 아이템 사용 가능 횟수 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대의 공격을 무시할 수 있는 등급 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp_Original</t>
+  </si>
+  <si>
+    <t>MaxHp_AddRate</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMp_AddRate</t>
+  </si>
+  <si>
+    <t>MaxMp_Original</t>
+  </si>
+  <si>
+    <t>MpEarnedPerHit_AddValue</t>
+  </si>
+  <si>
+    <t>MpEarnedPerHit_AddRate</t>
+  </si>
+  <si>
+    <t>MpEarnedPerHit_Original</t>
+  </si>
+  <si>
+    <t>최대 마나 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격당 획득 마나 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 마나 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격당 획득 마나 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxTp_Original</t>
+  </si>
+  <si>
+    <t>MaxTp_AddValue</t>
+  </si>
+  <si>
+    <t>최대 텔레포트 포인트 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxEquipSlot_Original</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot_AddValue</t>
+  </si>
+  <si>
+    <t>최대 장비 슬롯 개수 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TouchDamage_Original</t>
+  </si>
+  <si>
+    <t>TouchDamage_AddValue</t>
+  </si>
+  <si>
+    <t>TouchDamage_AddRate</t>
+  </si>
+  <si>
+    <t>충돌 시 주는 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 시 주는 대미지 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 시 주는 대미지 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDamage_Original</t>
+  </si>
+  <si>
+    <t>공격력 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TpEarnedPerKill_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TpEarnedPerKill_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TpEarnedPerKill_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬당 획득 TP + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬당 획득 TP + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkSpeed_AddValue</t>
+  </si>
+  <si>
+    <t>AtkSpeed_AddRate</t>
+  </si>
+  <si>
+    <t>AtkSpeed_Original</t>
+  </si>
+  <si>
+    <t>CurrentState_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTarget_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 나의 MainTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed_AddValue</t>
+  </si>
+  <si>
+    <t>MoveSpeed_AddRate</t>
+  </si>
+  <si>
+    <t>JumpAccel_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpAccel_AddValue</t>
+  </si>
+  <si>
+    <t>JumpAccel_AddRate</t>
+  </si>
+  <si>
+    <t>JumpAccelDecrement_AddValue</t>
+  </si>
+  <si>
+    <t>JumpAccelDecrement_AddRate</t>
+  </si>
+  <si>
+    <t>MaxJumpCount_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxJumpCount_AddValue</t>
+  </si>
+  <si>
+    <t>MaxFallSpeed_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxFallSpeed_AddValue</t>
+  </si>
+  <si>
+    <t>MaxFallSpeed_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDiveSpeed_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDiveSpeed_AddValue</t>
+  </si>
+  <si>
+    <t>MaxDiveSpeed_AddRate</t>
+  </si>
+  <si>
+    <t>DiveAccel_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiveAccel_AddValue</t>
+  </si>
+  <si>
+    <t>DiveAccel_AddRate</t>
+  </si>
+  <si>
+    <t>DiveDecel_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiveDecel_AddValue</t>
+  </si>
+  <si>
+    <t>DiveDecel_AddRate</t>
+  </si>
+  <si>
+    <t>DiveCancelSmoothness_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiveCancelSmoothness_AddValue</t>
+  </si>
+  <si>
+    <t>DiveCancelSmoothness_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitInvincibilityTime_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitInvincibilityTime_AddValue</t>
+  </si>
+  <si>
+    <t>HitInvincibilityTime_AddRate</t>
+  </si>
+  <si>
+    <t>Friction_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friction_AddValue</t>
+  </si>
+  <si>
+    <t>Friction_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddEnemyDetectPoint_Original</t>
+  </si>
+  <si>
+    <t>AddEnemyDetectPoint_AddValue</t>
+  </si>
+  <si>
+    <t>AddFrightenDetectPoint_Original</t>
+  </si>
+  <si>
+    <t>AddFrightenDetectPoint_AddValue</t>
+  </si>
+  <si>
+    <t>AddFrightenDetectPoint_AddRate</t>
+  </si>
+  <si>
+    <t>SubEnemyDetectPoint_Original</t>
+  </si>
+  <si>
+    <t>SubEnemyDetectPoint_AddValue</t>
+  </si>
+  <si>
+    <t>SubEnemyDetectPoint_AddRate</t>
+  </si>
+  <si>
+    <t>SubFrightenDetectPoint_Original</t>
+  </si>
+  <si>
+    <t>SubFrightenDetectPoint_AddValue</t>
+  </si>
+  <si>
+    <t>SubFrightenDetectPoint_AddRate</t>
+  </si>
+  <si>
+    <t>DetectedCoefficient_Original</t>
+  </si>
+  <si>
+    <t>DetectedCoefficient_AddValue</t>
+  </si>
+  <si>
+    <t>DetectedCoefficient_AddRate</t>
+  </si>
+  <si>
+    <t>초당 공포 감지 점수 증가량</t>
+  </si>
+  <si>
+    <t>초당 적대 감지 점수 증가량</t>
+  </si>
+  <si>
+    <t>점프 가속도</t>
+  </si>
+  <si>
+    <t>점프 가속도 + 추가 값</t>
+  </si>
+  <si>
+    <t>점프 가속도 + 추가 비율</t>
+  </si>
+  <si>
+    <t>점프 감속</t>
+  </si>
+  <si>
+    <t>점프 감속 + 추가 값</t>
+  </si>
+  <si>
+    <t>점프 감속 + 추가 비율</t>
+  </si>
+  <si>
+    <t>최대 점프 횟수</t>
+  </si>
+  <si>
+    <t>최대 점프 횟수 + 추가 값</t>
+  </si>
+  <si>
+    <t>종단 속도</t>
+  </si>
+  <si>
+    <t>종단 속도 + 추가 값</t>
+  </si>
+  <si>
+    <t>종단 속도 + 추가 비율</t>
+  </si>
+  <si>
+    <t>잠수 이동 가속도</t>
+  </si>
+  <si>
+    <t>잠수 이동 가속도 + 추가 값</t>
+  </si>
+  <si>
+    <t>잠수 이동 가속도 + 추가 비율</t>
+  </si>
+  <si>
+    <t>잠수 이동 감속도</t>
+  </si>
+  <si>
+    <t>잠수 이동 감속도 + 추가 값</t>
+  </si>
+  <si>
+    <t>잠수 이동 감속도 + 추가 비율</t>
+  </si>
+  <si>
+    <t>피격 시 무적 시간</t>
+  </si>
+  <si>
+    <t>피격 시 무적 시간 + 추가 값</t>
+  </si>
+  <si>
+    <t>피격 시 무적 시간 + 추가 비율</t>
+  </si>
+  <si>
+    <t>초당 적대 감지 점수 증가량 + 추가 값</t>
+  </si>
+  <si>
+    <t>초당 적대 감지 점수 증가량 + 추가 비율</t>
+  </si>
+  <si>
+    <t>초당 공포 감지 점수 증가량 + 추가 값</t>
+  </si>
+  <si>
+    <t>초당 적대 감지 점수 감소량</t>
+  </si>
+  <si>
+    <t>초당 적대 감지 점수 감소량 + 추가 값</t>
+  </si>
+  <si>
+    <t>초당 적대 감지 점수 감소량 + 추가 비율</t>
+  </si>
+  <si>
+    <t>초당 공포 감지 점수 감소량</t>
+  </si>
+  <si>
+    <t>초당 공포 감지 점수 감소량 + 추가 비율</t>
+  </si>
+  <si>
+    <t>나를 감지할 때 점수 증가량 계수</t>
+  </si>
+  <si>
+    <t>나를 감지할 때 점수 증가량 계수 + 추가 값</t>
+  </si>
+  <si>
+    <t>나를 감지할 때 점수 증가량 계수 + 추가 비율</t>
+  </si>
+  <si>
+    <t>MaxHp_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMp_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDamage_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDamage_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 나의 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 나의 마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 나의 텔레포트 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentHP_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentMP_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentTP_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentMP_Original1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentTP_Original1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddEnemyDetectPoint_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallClimbHight_Original1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallClimbHight_AddValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallClimbHight_AddRate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallClimbHight_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallClimbHight_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallClimbHight_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 타고 오르기 최대 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 타고 오르기 최대 높이 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 타고 오르기 최대 높이 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallDescentSpeed_Original1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallDescentSpeed_AddValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallDescentSpeed_AddRate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallDescentSpeed_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallDescentSpeed_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallDescentSpeed_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속력</t>
+  </si>
+  <si>
+    <t>공격 속력 + 추가 값</t>
+  </si>
+  <si>
+    <t>공격 속력 + 추가 비율</t>
+  </si>
+  <si>
+    <t>이동 속력</t>
+  </si>
+  <si>
+    <t>이동 속력 + 추가 값</t>
+  </si>
+  <si>
+    <t>이동 속력 + 추가 비율</t>
+  </si>
+  <si>
+    <t>벽 타고 내려오기 속력</t>
+  </si>
+  <si>
+    <t>벽 타고 내려오기 속력 + 추가 값</t>
+  </si>
+  <si>
+    <t>벽 타고 내려오기 속력 + 추가 비율</t>
+  </si>
+  <si>
+    <t>최대 잠수 이동 속력</t>
+  </si>
+  <si>
+    <t>최대 잠수 이동 속력 + 추가 값</t>
+  </si>
+  <si>
+    <t>최대 잠수 이동 속력 + 추가 비율</t>
+  </si>
+  <si>
+    <t>잠수&lt;-&gt;횡이동 속력 블렌딩</t>
+  </si>
+  <si>
+    <t>잠수&lt;-&gt;횡이동 속력 블렌딩 + 추가 값</t>
+  </si>
+  <si>
+    <t>잠수&lt;-&gt;횡이동 속력 블렌딩 + 추가 비율</t>
+  </si>
+  <si>
+    <t>BlinkSkillLevel_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blink_LevelUpItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkDistance_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 스킬 레벨 (스킬 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 스킬 레벨 (스킬 1렙 - 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 스킬 레벨 (스킬 2렙 - 이동, 관통공격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentSkill_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용 중인 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentSkillStep_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용 중인 스킬 스텝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyTargetList_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrightenTargetList_Origianl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetectTargetList_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTargetedList_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectedList_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeutralTargetList_Origianl</t>
+  </si>
+  <si>
+    <t>현재 나의 EnemyTarget들 (적대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 나의 FrightenTarget들 (공포)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 나의 NeutralTarget들 (중립)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 내가 Detect한 Target들</t>
+  </si>
+  <si>
+    <t>현재 나를 MainTarget으로 삼고 있는 Target들</t>
+  </si>
+  <si>
+    <t>현재 나에게 걸린 Effect들</t>
+  </si>
+  <si>
+    <t>BlinkAtkPower_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkDistance_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkDistance_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 거리 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 거리 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkAtkPower_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkAtkPower_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 공격력 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점멸 공격력 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Unit.
 NumberType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>MaxHealItem_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealItem_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArmorGrade_Original</t>
-  </si>
-  <si>
-    <t>ArmorGrade_Value</t>
-  </si>
-  <si>
-    <t>상대의 공격을 무시할 수 있는 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐 아이템 사용 가능 횟수 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상대의 공격을 무시할 수 있는 등급 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp_Original</t>
-  </si>
-  <si>
-    <t>MaxHp_AddRate</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMp_AddRate</t>
-  </si>
-  <si>
-    <t>MaxMp_Original</t>
-  </si>
-  <si>
-    <t>MpEarnedPerHit_AddValue</t>
-  </si>
-  <si>
-    <t>MpEarnedPerHit_AddRate</t>
-  </si>
-  <si>
-    <t>MpEarnedPerHit_Original</t>
-  </si>
-  <si>
-    <t>최대 마나 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격당 획득 마나 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 마나 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격당 획득 마나 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxTp_Original</t>
-  </si>
-  <si>
-    <t>MaxTp_AddValue</t>
-  </si>
-  <si>
-    <t>최대 텔레포트 포인트 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxEquipSlot_Original</t>
-  </si>
-  <si>
-    <t>MaxEquipSlot_AddValue</t>
-  </si>
-  <si>
-    <t>최대 장비 슬롯 개수 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TouchDamage_Original</t>
-  </si>
-  <si>
-    <t>TouchDamage_AddValue</t>
-  </si>
-  <si>
-    <t>TouchDamage_AddRate</t>
-  </si>
-  <si>
-    <t>충돌 시 주는 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충돌 시 주는 대미지 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충돌 시 주는 대미지 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDamage_Original</t>
-  </si>
-  <si>
-    <t>공격력 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TpEarnedPerKill_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TpEarnedPerKill_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TpEarnedPerKill_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킬당 획득 TP + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킬당 획득 TP + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkSpeed_AddValue</t>
-  </si>
-  <si>
-    <t>AtkSpeed_AddRate</t>
-  </si>
-  <si>
-    <t>AtkSpeed_Original</t>
-  </si>
-  <si>
-    <t>CurrentState_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainTarget_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 나의 MainTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed_AddValue</t>
-  </si>
-  <si>
-    <t>MoveSpeed_AddRate</t>
-  </si>
-  <si>
-    <t>JumpAccel_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpAccel_AddValue</t>
-  </si>
-  <si>
-    <t>JumpAccel_AddRate</t>
-  </si>
-  <si>
-    <t>JumpAccelDecrement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpAccelDecrement_AddValue</t>
-  </si>
-  <si>
-    <t>JumpAccelDecrement_AddRate</t>
-  </si>
-  <si>
-    <t>MaxJumpCount_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxJumpCount_AddValue</t>
-  </si>
-  <si>
-    <t>MaxFallSpeed_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxFallSpeed_AddValue</t>
-  </si>
-  <si>
-    <t>MaxFallSpeed_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxDiveSpeed_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxDiveSpeed_AddValue</t>
-  </si>
-  <si>
-    <t>MaxDiveSpeed_AddRate</t>
-  </si>
-  <si>
-    <t>DiveAccel_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiveAccel_AddValue</t>
-  </si>
-  <si>
-    <t>DiveAccel_AddRate</t>
-  </si>
-  <si>
-    <t>DiveDecel_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiveDecel_AddValue</t>
-  </si>
-  <si>
-    <t>DiveDecel_AddRate</t>
-  </si>
-  <si>
-    <t>DiveCancelSmoothness_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiveCancelSmoothness_AddValue</t>
-  </si>
-  <si>
-    <t>DiveCancelSmoothness_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitInvincibilityTime_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitInvincibilityTime_AddValue</t>
-  </si>
-  <si>
-    <t>HitInvincibilityTime_AddRate</t>
-  </si>
-  <si>
-    <t>Friction_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friction_AddValue</t>
-  </si>
-  <si>
-    <t>Friction_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddEnemyDetectPoint_Original</t>
-  </si>
-  <si>
-    <t>AddEnemyDetectPoint_AddValue</t>
-  </si>
-  <si>
-    <t>AddFrightenDetectPoint_Original</t>
-  </si>
-  <si>
-    <t>AddFrightenDetectPoint_AddValue</t>
-  </si>
-  <si>
-    <t>AddFrightenDetectPoint_AddRate</t>
-  </si>
-  <si>
-    <t>SubEnemyDetectPoint_Original</t>
-  </si>
-  <si>
-    <t>SubEnemyDetectPoint_AddValue</t>
-  </si>
-  <si>
-    <t>SubEnemyDetectPoint_AddRate</t>
-  </si>
-  <si>
-    <t>SubFrightenDetectPoint_Original</t>
-  </si>
-  <si>
-    <t>SubFrightenDetectPoint_AddValue</t>
-  </si>
-  <si>
-    <t>SubFrightenDetectPoint_AddRate</t>
-  </si>
-  <si>
-    <t>DetectedCoefficient_Original</t>
-  </si>
-  <si>
-    <t>DetectedCoefficient_AddValue</t>
-  </si>
-  <si>
-    <t>DetectedCoefficient_AddRate</t>
-  </si>
-  <si>
-    <t>초당 공포 감지 점수 증가량</t>
-  </si>
-  <si>
-    <t>초당 적대 감지 점수 증가량</t>
-  </si>
-  <si>
-    <t>점프 가속도</t>
-  </si>
-  <si>
-    <t>점프 가속도 + 추가 값</t>
-  </si>
-  <si>
-    <t>점프 가속도 + 추가 비율</t>
-  </si>
-  <si>
-    <t>점프 감속</t>
-  </si>
-  <si>
-    <t>점프 감속 + 추가 값</t>
-  </si>
-  <si>
-    <t>점프 감속 + 추가 비율</t>
-  </si>
-  <si>
-    <t>최대 점프 횟수</t>
-  </si>
-  <si>
-    <t>최대 점프 횟수 + 추가 값</t>
-  </si>
-  <si>
-    <t>종단 속도</t>
-  </si>
-  <si>
-    <t>종단 속도 + 추가 값</t>
-  </si>
-  <si>
-    <t>종단 속도 + 추가 비율</t>
-  </si>
-  <si>
-    <t>잠수 이동 가속도</t>
-  </si>
-  <si>
-    <t>잠수 이동 가속도 + 추가 값</t>
-  </si>
-  <si>
-    <t>잠수 이동 가속도 + 추가 비율</t>
-  </si>
-  <si>
-    <t>잠수 이동 감속도</t>
-  </si>
-  <si>
-    <t>잠수 이동 감속도 + 추가 값</t>
-  </si>
-  <si>
-    <t>잠수 이동 감속도 + 추가 비율</t>
-  </si>
-  <si>
-    <t>피격 시 무적 시간</t>
-  </si>
-  <si>
-    <t>피격 시 무적 시간 + 추가 값</t>
-  </si>
-  <si>
-    <t>피격 시 무적 시간 + 추가 비율</t>
-  </si>
-  <si>
-    <t>초당 적대 감지 점수 증가량 + 추가 값</t>
-  </si>
-  <si>
-    <t>초당 적대 감지 점수 증가량 + 추가 비율</t>
-  </si>
-  <si>
-    <t>초당 공포 감지 점수 증가량 + 추가 값</t>
+  </si>
+  <si>
+    <t>#Stat과
+유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorGrade_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpAccelDecrement_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddNeutralDetectPoint_Origianl</t>
+  </si>
+  <si>
+    <t>AddNeutralDetectPoint_AddValue</t>
+  </si>
+  <si>
+    <t>AddNeutralDetectPoint_AddRate</t>
+  </si>
+  <si>
+    <t>SubNeutralDetectPoint_Original</t>
+  </si>
+  <si>
+    <t>SubNeutralDetectPoint_AddValue</t>
+  </si>
+  <si>
+    <t>SubNeutralDetectPoint_AddRate</t>
+  </si>
+  <si>
+    <t>초당 중립 감지 점수 감소량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 중립 감지 점수 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 공포 감지 점수 감소량 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 중립 감지 점수 증가량 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 중립 감지 점수 감소량 + 추가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초당 공포 감지 점수 증가량 + 추가 비율</t>
-  </si>
-  <si>
-    <t>초당 적대 감지 점수 감소량</t>
-  </si>
-  <si>
-    <t>초당 적대 감지 점수 감소량 + 추가 값</t>
-  </si>
-  <si>
-    <t>초당 적대 감지 점수 감소량 + 추가 비율</t>
-  </si>
-  <si>
-    <t>초당 공포 감지 점수 감소량</t>
-  </si>
-  <si>
-    <t>초당 공포 감지 점수 감소량 + 추가 값</t>
-  </si>
-  <si>
-    <t>초당 공포 감지 점수 감소량 + 추가 비율</t>
-  </si>
-  <si>
-    <t>나를 감지할 때 점수 증가량 계수</t>
-  </si>
-  <si>
-    <t>나를 감지할 때 점수 증가량 계수 + 추가 값</t>
-  </si>
-  <si>
-    <t>나를 감지할 때 점수 증가량 계수 + 추가 비율</t>
-  </si>
-  <si>
-    <t>MaxHp_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMp_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDamage_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDamage_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 나의 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 나의 마나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 나의 텔레포트 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentHP_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentMP_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentTP_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentMP_Original1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentTP_Original1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddEnemyDetectPoint_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallClimbHight_Original1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallClimbHight_AddValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallClimbHight_AddRate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallClimbHight_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallClimbHight_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallClimbHight_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 타고 오르기 최대 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 타고 오르기 최대 높이 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 타고 오르기 최대 높이 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallDescentSpeed_Original1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallDescentSpeed_AddValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallDescentSpeed_AddRate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallDescentSpeed_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallDescentSpeed_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallDescentSpeed_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속력</t>
-  </si>
-  <si>
-    <t>공격 속력 + 추가 값</t>
-  </si>
-  <si>
-    <t>공격 속력 + 추가 비율</t>
-  </si>
-  <si>
-    <t>이동 속력</t>
-  </si>
-  <si>
-    <t>이동 속력 + 추가 값</t>
-  </si>
-  <si>
-    <t>이동 속력 + 추가 비율</t>
-  </si>
-  <si>
-    <t>벽 타고 내려오기 속력</t>
-  </si>
-  <si>
-    <t>벽 타고 내려오기 속력 + 추가 값</t>
-  </si>
-  <si>
-    <t>벽 타고 내려오기 속력 + 추가 비율</t>
-  </si>
-  <si>
-    <t>최대 잠수 이동 속력</t>
-  </si>
-  <si>
-    <t>최대 잠수 이동 속력 + 추가 값</t>
-  </si>
-  <si>
-    <t>최대 잠수 이동 속력 + 추가 비율</t>
-  </si>
-  <si>
-    <t>잠수&lt;-&gt;횡이동 속력 블렌딩</t>
-  </si>
-  <si>
-    <t>잠수&lt;-&gt;횡이동 속력 블렌딩 + 추가 값</t>
-  </si>
-  <si>
-    <t>잠수&lt;-&gt;횡이동 속력 블렌딩 + 추가 비율</t>
-  </si>
-  <si>
-    <t>BlinkSkillLevel_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blink_LevelUpItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkDistance_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 스킬 레벨 (스킬 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 스킬 레벨 (스킬 1렙 - 이동)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 스킬 레벨 (스킬 2렙 - 이동, 관통공격)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentSkill_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 사용 중인 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentSkillStep_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 사용 중인 스킬 스텝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyTargetList_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrightenTargetList_Origianl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetectTargetList_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainTargetedList_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectedList_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeutralTargetList_Origianl</t>
-  </si>
-  <si>
-    <t>현재 나의 EnemyTarget들 (적대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 나의 FrightenTarget들 (공포)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 나의 NeutralTarget들 (중립)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 내가 Detect한 Target들</t>
-  </si>
-  <si>
-    <t>현재 나를 MainTarget으로 삼고 있는 Target들</t>
-  </si>
-  <si>
-    <t>현재 나에게 걸린 Effect들</t>
-  </si>
-  <si>
-    <t>BlinkAtkPower_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkDistance_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkDistance_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 거리 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 거리 + 추가 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkAtkPower_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkAtkPower_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 공격력 + 추가 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점멸 공격력 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 중립 감지 점수 증가량 + 추가 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 중립 감지 점수 감소량 + 추가 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,8 +1020,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,6 +1122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1095,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1245,6 +1319,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1266,6 +1380,570 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Stat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ID</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CurrentState_Original</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CurrentSkill_Original</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CurrentSkillStep_Original</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MainTarget_Original</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>EnemyTargetList_Original</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FrightenTargetList_Origianl</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>NeutralTargetList_Origianl</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>DetectTargetList_Original</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MainTargetedList_Original</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EffectedList_Original</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>CurrentHP_Original</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>CurrentMP_Original</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>CurrentTP_Original</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>MaxHealItem_Original</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>MaxHealItem_AddValue</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>ArmorGrade_Original</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>ArmorGrade_AddValue</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>MaxHp_Original</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>MaxHp_AddValue</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>MaxHp_AddRate</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>MaxMp_Original</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>MaxMp_AddValue</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>MaxMp_AddRate</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>MpEarnedPerHit_Original</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>MpEarnedPerHit_AddValue</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>MpEarnedPerHit_AddRate</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>MaxTp_Original</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>MaxTp_AddValue</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>TpEarnedPerKill_Original</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>TpEarnedPerKill_AddValue</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>TpEarnedPerKill_AddRate</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>MaxEquipSlot_Original</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>MaxEquipSlot_AddValue</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>TouchDamage_Original</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>TouchDamage_AddValue</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>TouchDamage_AddRate</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>AtkDamage_Original</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>AtkDamage_AddValue</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>AtkDamage_AddRate</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>AtkSpeed_Original</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>AtkSpeed_AddValue</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>AtkSpeed_AddRate</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>MoveSpeed_Original</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>MoveSpeed_AddValue</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>MoveSpeed_AddRate</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>JumpAccel_Original</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>JumpAccel_AddValue</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>JumpAccel_AddRate</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>JumpAccelDecrement_Original</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>JumpAccelDecrement_AddValue</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>JumpAccelDecrement_AddRate</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>MaxJumpCount_Original</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>MaxJumpCount_AddValue</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>MaxFallSpeed_Original</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>MaxFallSpeed_AddValue</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>MaxFallSpeed_AddRate</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>WallClimbHight_Original</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>WallClimbHight_AddValue</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>WallClimbHight_AddRate</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>WallDescentSpeed_Original</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>WallDescentSpeed_AddValue</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>WallDescentSpeed_AddRate</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>MaxDiveSpeed_Original</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>MaxDiveSpeed_AddValue</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>MaxDiveSpeed_AddRate</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>DiveAccel_Original</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>DiveAccel_AddValue</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>DiveAccel_AddRate</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>DiveDecel_Original</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>DiveDecel_AddValue</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>DiveDecel_AddRate</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>DiveCancelSmoothness_Original</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>DiveCancelSmoothness_AddValue</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>DiveCancelSmoothness_AddRate</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>HitInvincibilityTime_Original</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>HitInvincibilityTime_AddValue</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>HitInvincibilityTime_AddRate</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>AddEnemyDetectPoint_Original</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>AddEnemyDetectPoint_AddValue</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>AddEnemyDetectPoint_AddRate</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>AddFrightenDetectPoint_Original</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>AddFrightenDetectPoint_AddValue</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>AddFrightenDetectPoint_AddRate</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>AddNeutralDetectPoint_Origianl</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>AddNeutralDetectPoint_AddValue</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>AddNeutralDetectPoint_AddRate</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>SubEnemyDetectPoint_Original</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>SubEnemyDetectPoint_AddValue</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>SubEnemyDetectPoint_AddRate</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>SubFrightenDetectPoint_Original</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>SubFrightenDetectPoint_AddValue</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>SubFrightenDetectPoint_AddRate</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>SubNeutralDetectPoint_Original</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>SubNeutralDetectPoint_AddValue</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>SubNeutralDetectPoint_AddRate</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>DetectedCoefficient_Original</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>DetectedCoefficient_AddValue</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>DetectedCoefficient_AddRate</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>Friction_Original</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>Friction_AddValue</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Friction_AddRate</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>BlinkSkillLevel_Original</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>BlinkDistance_Original</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>BlinkDistance_AddValue</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>BlinkDistance_AddRate</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>BlinkAtkPower_Original</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>BlinkAtkPower_AddValue</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>BlinkAtkPower_AddRate</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1531,29 +2209,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A302257-2F9E-4E0B-B60A-04456D59DDB5}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="57.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="57.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.09765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="88.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="88.2" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1581,8 +2258,11 @@
       <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="J1" s="74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -1610,50 +2290,57 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="str">
         <f t="shared" ref="A3:A39" si="0">B3&amp;C3</f>
         <v>CurrentState_Original1</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="46">
-        <v>1</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>83</v>
-      </c>
       <c r="E3" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J3" s="76" t="str">
+        <f>VLOOKUP(B3,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>CurrentState_Original</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="str">
         <f t="shared" si="0"/>
         <v>CurrentSkill_Original1</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C4" s="46">
         <v>1</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>9</v>
@@ -1662,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>9</v>
@@ -1670,20 +2357,24 @@
       <c r="I4" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="76" t="str">
+        <f>VLOOKUP(B4,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>CurrentSkill_Original</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="str">
         <f t="shared" si="0"/>
         <v>CurrentSkillStep_Original1</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>9</v>
@@ -1692,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>9</v>
@@ -1700,80 +2391,92 @@
       <c r="I5" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="76" t="str">
+        <f>VLOOKUP(B5,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>CurrentSkillStep_Original</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="str">
         <f t="shared" si="0"/>
         <v>MainTarget_Original1</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="46">
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>85</v>
-      </c>
       <c r="H6" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="76" t="str">
+        <f>VLOOKUP(B6,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MainTarget_Original</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="str">
         <f t="shared" si="0"/>
         <v>EnemyTargetList_Original1</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J7" s="76" t="str">
+        <f>VLOOKUP(B7,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>EnemyTargetList_Original</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="str">
         <f t="shared" si="0"/>
         <v>FrightenTargetList_Origianl1</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C8" s="46">
         <v>1</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>9</v>
@@ -1782,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>9</v>
@@ -1790,20 +2493,24 @@
       <c r="I8" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="76" t="str">
+        <f>VLOOKUP(B8,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>FrightenTargetList_Origianl</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="str">
         <f t="shared" si="0"/>
         <v>NeutralTargetList_Origianl1</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C9" s="46">
         <v>1</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>9</v>
@@ -1812,7 +2519,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>9</v>
@@ -1820,20 +2527,24 @@
       <c r="I9" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="76" t="str">
+        <f>VLOOKUP(B9,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>NeutralTargetList_Origianl</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="str">
         <f t="shared" si="0"/>
         <v>DetectTargetList_Original1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>9</v>
@@ -1842,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>9</v>
@@ -1850,20 +2561,24 @@
       <c r="I10" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="76" t="str">
+        <f>VLOOKUP(B10,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DetectTargetList_Original</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="str">
         <f t="shared" si="0"/>
         <v>MainTargetedList_Original1</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C11" s="46">
         <v>1</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>9</v>
@@ -1872,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>9</v>
@@ -1880,20 +2595,24 @@
       <c r="I11" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="76" t="str">
+        <f>VLOOKUP(B11,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MainTargetedList_Original</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="str">
         <f t="shared" si="0"/>
         <v>EffectedList_Original1</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C12" s="46">
         <v>1</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>9</v>
@@ -1902,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>9</v>
@@ -1910,87 +2629,99 @@
       <c r="I12" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="76" t="str">
+        <f>VLOOKUP(B12,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>EffectedList_Original</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="61" t="str">
         <f>B13&amp;C13</f>
         <v>CurrentHP_Original1</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C13" s="62">
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="29">
         <v>500</v>
       </c>
       <c r="F13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="77" t="str">
+        <f>VLOOKUP(B13,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>CurrentHP_Original</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="C14" s="34">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="78" t="str">
+        <f>VLOOKUP(B14,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>CurrentMP_Original</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="34">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>178</v>
-      </c>
       <c r="C15" s="24">
         <v>1</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H15" s="65" t="s">
         <v>9</v>
@@ -1998,26 +2729,30 @@
       <c r="I15" s="65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="79" t="str">
+        <f>VLOOKUP(B15,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>CurrentTP_Original</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxHealItem_Original1</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="20">
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>20</v>
@@ -2028,29 +2763,33 @@
       <c r="I16" s="19">
         <v>1</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="J16" s="80" t="str">
+        <f>VLOOKUP(B16,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHealItem_Original</v>
+      </c>
+      <c r="L16" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxHealItem_Original2</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="22">
         <v>2</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="20">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>20</v>
@@ -2061,29 +2800,33 @@
       <c r="I17" s="19">
         <v>1</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="80" t="str">
+        <f>VLOOKUP(B17,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHealItem_Original</v>
+      </c>
+      <c r="L17" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxHealItem_Original3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="22">
         <v>3</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="20">
         <v>3</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>20</v>
@@ -2094,26 +2837,30 @@
       <c r="I18" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="80" t="str">
+        <f>VLOOKUP(B18,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHealItem_Original</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxHealItem_Original4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="22">
         <v>4</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="20">
         <v>4</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>20</v>
@@ -2124,26 +2871,30 @@
       <c r="I19" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="80" t="str">
+        <f>VLOOKUP(B19,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHealItem_Original</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxHealItem_Original5</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="22">
         <v>5</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="20">
         <v>5</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>20</v>
@@ -2154,29 +2905,33 @@
       <c r="I20" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="80" t="str">
+        <f>VLOOKUP(B20,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHealItem_Original</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxHealItem_AddValue1</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" s="20">
         <v>0</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>9</v>
@@ -2184,86 +2939,98 @@
       <c r="I21" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="80" t="str">
+        <f>VLOOKUP(B21,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHealItem_AddValue</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>ArmorGrade_Original1</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="24">
-        <v>1</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="24">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="H22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J22" s="81" t="str">
+        <f>VLOOKUP(B22,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>ArmorGrade_Original</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ArmorGrade_Value1</v>
+        <v>ArmorGrade_AddValue1</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="C23" s="24">
         <v>1</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="24">
         <v>0</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J23" s="81" t="str">
+        <f>VLOOKUP(B23,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>ArmorGrade_AddValue</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_Original1</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="29">
         <v>500</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>21</v>
@@ -2274,26 +3041,30 @@
       <c r="I24" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="82" t="str">
+        <f>VLOOKUP(B24,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_Original</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_Original2</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="31">
         <v>2</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="31">
         <v>600</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>21</v>
@@ -2304,26 +3075,30 @@
       <c r="I25" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="82" t="str">
+        <f>VLOOKUP(B25,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_Original</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_Original3</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="31">
         <v>3</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="31">
         <v>700</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>21</v>
@@ -2334,26 +3109,30 @@
       <c r="I26" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="82" t="str">
+        <f>VLOOKUP(B26,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_Original</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_Original4</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="31">
         <v>4</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="31">
         <v>800</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>21</v>
@@ -2364,26 +3143,30 @@
       <c r="I27" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="82" t="str">
+        <f>VLOOKUP(B27,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_Original</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_Original5</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="31">
         <v>5</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="31">
         <v>900</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>21</v>
@@ -2394,26 +3177,30 @@
       <c r="I28" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="82" t="str">
+        <f>VLOOKUP(B28,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_Original</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_Original6</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="31">
         <v>6</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="29">
         <v>1000</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="27" t="s">
         <v>21</v>
@@ -2424,29 +3211,33 @@
       <c r="I29" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="82" t="str">
+        <f>VLOOKUP(B29,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_Original</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_AddValue1</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C30" s="29">
         <v>1</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="29">
         <v>0</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="27" t="s">
         <v>9</v>
@@ -2454,56 +3245,64 @@
       <c r="I30" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="82" t="str">
+        <f>VLOOKUP(B30,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_AddValue</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="str">
         <f t="shared" si="0"/>
         <v>MaxHp_AddRate1</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="29">
-        <v>1</v>
-      </c>
-      <c r="D31" s="29" t="s">
+      <c r="E31" s="29">
+        <v>0</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="29">
-        <v>0</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="H31" s="27" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="82" t="str">
+        <f>VLOOKUP(B31,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxHp_AddRate</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_Original1</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="34">
         <v>1</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="34">
         <v>500</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>22</v>
@@ -2514,26 +3313,30 @@
       <c r="I32" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="83" t="str">
+        <f>VLOOKUP(B32,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_Original</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_Original2</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="36">
         <v>2</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="36">
         <v>600</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>22</v>
@@ -2544,26 +3347,30 @@
       <c r="I33" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="83" t="str">
+        <f>VLOOKUP(B33,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_Original</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_Original3</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="36">
         <v>3</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="36">
         <v>700</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>22</v>
@@ -2574,26 +3381,30 @@
       <c r="I34" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="83" t="str">
+        <f>VLOOKUP(B34,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_Original</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_Original4</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="36">
         <v>4</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="36">
         <v>800</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>22</v>
@@ -2604,26 +3415,30 @@
       <c r="I35" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="83" t="str">
+        <f>VLOOKUP(B35,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_Original</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_Original5</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="36">
         <v>5</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="36">
         <v>900</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>22</v>
@@ -2634,26 +3449,30 @@
       <c r="I36" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="83" t="str">
+        <f>VLOOKUP(B36,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_Original</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_Original6</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="34">
         <v>6</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="36">
         <v>1000</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>22</v>
@@ -2664,29 +3483,33 @@
       <c r="I37" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="83" t="str">
+        <f>VLOOKUP(B37,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_Original</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_AddValue1</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C38" s="34">
         <v>1</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="36">
         <v>0</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" s="32" t="s">
         <v>9</v>
@@ -2694,29 +3517,33 @@
       <c r="I38" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="83" t="str">
+        <f>VLOOKUP(B38,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_AddValue</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MaxMp_AddRate1</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="34">
         <v>1</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="36">
         <v>0</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>9</v>
@@ -2724,26 +3551,30 @@
       <c r="I39" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="83" t="str">
+        <f>VLOOKUP(B39,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxMp_AddRate</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="str">
         <f t="shared" ref="A40:A42" si="1">B40&amp;C40</f>
         <v>MpEarnedPerHit_Original1</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="22">
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>26</v>
@@ -2754,29 +3585,33 @@
       <c r="I40" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="80" t="str">
+        <f>VLOOKUP(B40,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MpEarnedPerHit_Original</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="str">
         <f t="shared" si="1"/>
         <v>MpEarnedPerHit_AddValue1</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="20">
         <v>1</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="22">
         <v>0</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>9</v>
@@ -2784,29 +3619,33 @@
       <c r="I41" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="80" t="str">
+        <f>VLOOKUP(B41,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MpEarnedPerHit_AddValue</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="str">
         <f t="shared" si="1"/>
         <v>MpEarnedPerHit_AddRate1</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="20">
         <v>1</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" s="22">
         <v>0</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>9</v>
@@ -2814,26 +3653,30 @@
       <c r="I42" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="80" t="str">
+        <f>VLOOKUP(B42,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MpEarnedPerHit_AddRate</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="str">
         <f t="shared" ref="A43:A74" si="2">B43&amp;C43</f>
         <v>MaxTp_Original1</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="24">
         <v>1</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="38">
         <v>1</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>23</v>
@@ -2844,26 +3687,30 @@
       <c r="I43" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="81" t="str">
+        <f>VLOOKUP(B43,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxTp_Original</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MaxTp_Original2</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="38">
         <v>2</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="38">
         <v>2</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>23</v>
@@ -2874,86 +3721,98 @@
       <c r="I44" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="81" t="str">
+        <f>VLOOKUP(B44,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxTp_Original</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MaxTp_Original3</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="38">
         <v>3</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="38">
         <v>3</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J45" s="81" t="str">
+        <f>VLOOKUP(B45,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxTp_Original</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MaxTp_AddValue1</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="24">
         <v>1</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="38">
         <v>0</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J46" s="81" t="str">
+        <f>VLOOKUP(B46,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxTp_AddValue</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="str">
         <f t="shared" si="2"/>
         <v>TpEarnedPerKill_Original1</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="40">
         <v>1</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" s="40">
         <v>1</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" s="42" t="s">
         <v>27</v>
@@ -2964,86 +3823,98 @@
       <c r="I47" s="42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="84" t="str">
+        <f>VLOOKUP(B47,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>TpEarnedPerKill_Original</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="39" t="str">
         <f t="shared" si="2"/>
         <v>TpEarnedPerKill_AddValue1</v>
       </c>
       <c r="B48" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="41">
+        <v>1</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="40">
+        <v>0</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="41">
-        <v>1</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="40">
-        <v>0</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>76</v>
-      </c>
       <c r="H48" s="42" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="84" t="str">
+        <f>VLOOKUP(B48,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>TpEarnedPerKill_AddValue</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="str">
         <f t="shared" si="2"/>
         <v>TpEarnedPerKill_AddRate1</v>
       </c>
       <c r="B49" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="41">
+        <v>1</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="40">
+        <v>0</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="41">
-        <v>1</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="40">
-        <v>0</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>77</v>
-      </c>
       <c r="H49" s="42" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="84" t="str">
+        <f>VLOOKUP(B49,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>TpEarnedPerKill_AddRate</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original1</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="29">
         <v>1</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E50" s="31">
         <v>1</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>24</v>
@@ -3054,26 +3925,30 @@
       <c r="I50" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="82" t="str">
+        <f>VLOOKUP(B50,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original2</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="31">
         <v>2</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" s="31">
         <v>2</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>24</v>
@@ -3084,26 +3959,30 @@
       <c r="I51" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="82" t="str">
+        <f>VLOOKUP(B51,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original3</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="31">
         <v>3</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="31">
         <v>3</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>24</v>
@@ -3114,26 +3993,30 @@
       <c r="I52" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="82" t="str">
+        <f>VLOOKUP(B52,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original4</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="31">
         <v>4</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" s="31">
         <v>4</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>24</v>
@@ -3144,26 +4027,30 @@
       <c r="I53" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="82" t="str">
+        <f>VLOOKUP(B53,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original5</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="31">
         <v>5</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54" s="31">
         <v>5</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>24</v>
@@ -3174,26 +4061,30 @@
       <c r="I54" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="82" t="str">
+        <f>VLOOKUP(B54,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original6</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="31">
         <v>6</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="31">
         <v>6</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>24</v>
@@ -3204,26 +4095,30 @@
       <c r="I55" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="82" t="str">
+        <f>VLOOKUP(B55,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_Original7</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="31">
         <v>7</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" s="31">
         <v>7</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>24</v>
@@ -3234,29 +4129,33 @@
       <c r="I56" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="82" t="str">
+        <f>VLOOKUP(B56,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_Original</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="27" t="str">
         <f t="shared" si="2"/>
         <v>MaxEquipSlot_AddValue1</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="29">
         <v>1</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="31">
         <v>0</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H57" s="27" t="s">
         <v>9</v>
@@ -3264,116 +4163,132 @@
       <c r="I57" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="82" t="str">
+        <f>VLOOKUP(B57,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxEquipSlot_AddValue</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TouchDamage_Original1</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="34">
         <v>1</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="36">
         <v>0</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J58" s="83" t="str">
+        <f>VLOOKUP(B58,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>TouchDamage_Original</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TouchDamage_AddValue1</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="34">
         <v>1</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="36">
         <v>0</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J59" s="83" t="str">
+        <f>VLOOKUP(B59,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>TouchDamage_AddValue</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TouchDamage_AddRate1</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="34">
         <v>1</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E60" s="36">
         <v>0</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J60" s="83" t="str">
+        <f>VLOOKUP(B60,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>TouchDamage_AddRate</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_Original1</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="20">
         <v>1</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E61" s="22">
         <v>100</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>25</v>
@@ -3384,26 +4299,30 @@
       <c r="I61" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="80" t="str">
+        <f>VLOOKUP(B61,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_Original</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_Original2</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="22">
         <v>2</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" s="22">
         <v>125</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>25</v>
@@ -3414,26 +4333,30 @@
       <c r="I62" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="80" t="str">
+        <f>VLOOKUP(B62,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_Original</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_Original3</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" s="22">
         <v>3</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" s="22">
         <v>150</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>25</v>
@@ -3444,26 +4367,30 @@
       <c r="I63" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="80" t="str">
+        <f>VLOOKUP(B63,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_Original</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_Original4</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" s="22">
         <v>4</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="22">
         <v>175</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>25</v>
@@ -3474,26 +4401,30 @@
       <c r="I64" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="85" t="str">
+        <f>VLOOKUP(B64,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_Original</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_Original5</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="22">
         <v>5</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" s="22">
         <v>200</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>25</v>
@@ -3504,29 +4435,33 @@
       <c r="I65" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="80" t="str">
+        <f>VLOOKUP(B65,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_Original</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_AddValue1</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C66" s="22">
         <v>1</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E66" s="22">
         <v>0</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>9</v>
@@ -3534,29 +4469,33 @@
       <c r="I66" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J66" s="80" t="str">
+        <f>VLOOKUP(B66,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_AddValue</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="str">
         <f t="shared" si="2"/>
         <v>AtkDamage_AddRate1</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C67" s="22">
         <v>1</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E67" s="22">
         <v>0</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>9</v>
@@ -3564,29 +4503,33 @@
       <c r="I67" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="80" t="str">
+        <f>VLOOKUP(B67,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkDamage_AddRate</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="str">
         <f t="shared" si="2"/>
         <v>AtkSpeed_Original1</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="38">
         <v>1</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E68" s="38">
         <v>1</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H68" s="23" t="s">
         <v>9</v>
@@ -3594,29 +4537,33 @@
       <c r="I68" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="81" t="str">
+        <f>VLOOKUP(B68,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkSpeed_Original</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="str">
         <f t="shared" si="2"/>
         <v>AtkSpeed_AddValue1</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="38">
         <v>1</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" s="38">
         <v>0</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H69" s="23" t="s">
         <v>9</v>
@@ -3624,556 +4571,632 @@
       <c r="I69" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="81" t="str">
+        <f>VLOOKUP(B69,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkSpeed_AddValue</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="str">
         <f t="shared" si="2"/>
         <v>AtkSpeed_AddRate1</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" s="38">
         <v>1</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E70" s="38">
         <v>0</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J70" s="81" t="str">
+        <f>VLOOKUP(B70,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AtkSpeed_AddRate</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28" t="str">
         <f t="shared" si="2"/>
         <v>MoveSpeed_Original1</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="31">
         <v>1</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71" s="31">
         <v>7</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J71" s="82" t="str">
+        <f>VLOOKUP(B71,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MoveSpeed_Original</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="28" t="str">
         <f t="shared" si="2"/>
         <v>MoveSpeed_AddValue1</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" s="31">
         <v>1</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E72" s="31">
         <v>0</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J72" s="82" t="str">
+        <f>VLOOKUP(B72,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MoveSpeed_AddValue</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="28" t="str">
         <f t="shared" si="2"/>
         <v>MoveSpeed_AddRate1</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="31">
         <v>1</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E73" s="31">
         <v>0</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J73" s="82" t="str">
+        <f>VLOOKUP(B73,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MoveSpeed_AddRate</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="str">
         <f t="shared" si="2"/>
         <v>JumpAccel_Original1</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="36">
         <v>1</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E74" s="36">
         <v>30</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J74" s="83" t="str">
+        <f>VLOOKUP(B74,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>JumpAccel_Original</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="str">
         <f t="shared" ref="A75:A112" si="3">B75&amp;C75</f>
         <v>JumpAccel_AddValue1</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="36">
         <v>1</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75" s="36">
         <v>0</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J75" s="83" t="str">
+        <f>VLOOKUP(B75,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>JumpAccel_AddValue</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="str">
         <f t="shared" si="3"/>
         <v>JumpAccel_AddRate1</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="36">
         <v>1</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E76" s="36">
         <v>0</v>
       </c>
       <c r="F76" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J76" s="83" t="str">
+        <f>VLOOKUP(B76,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>JumpAccel_AddRate</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>JumpAccelDecrement1</v>
+        <v>JumpAccelDecrement_Original1</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="C77" s="18">
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E77" s="18">
         <v>80</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J77" s="86" t="str">
+        <f>VLOOKUP(B77,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>JumpAccelDecrement_Original</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="49" t="str">
         <f t="shared" si="3"/>
         <v>JumpAccelDecrement_AddValue1</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C78" s="18">
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E78" s="18">
         <v>0</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J78" s="86" t="str">
+        <f>VLOOKUP(B78,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>JumpAccelDecrement_AddValue</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="49" t="str">
         <f t="shared" si="3"/>
         <v>JumpAccelDecrement_AddRate1</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C79" s="18">
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E79" s="18">
         <v>0</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J79" s="86" t="str">
+        <f>VLOOKUP(B79,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>JumpAccelDecrement_AddRate</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="str">
         <f t="shared" si="3"/>
         <v>MaxJumpCount_Original1</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C80" s="38">
         <v>1</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E80" s="38">
         <v>2</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J80" s="81" t="str">
+        <f>VLOOKUP(B80,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxJumpCount_Original</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="str">
         <f t="shared" si="3"/>
         <v>MaxJumpCount_AddValue1</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C81" s="38">
         <v>1</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E81" s="38">
         <v>0</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J81" s="81" t="str">
+        <f>VLOOKUP(B81,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxJumpCount_AddValue</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="28" t="str">
         <f t="shared" si="3"/>
         <v>MaxFallSpeed_Original1</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C82" s="31">
         <v>1</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E82" s="31">
         <v>100</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J82" s="82" t="str">
+        <f>VLOOKUP(B82,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxFallSpeed_Original</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="28" t="str">
         <f t="shared" si="3"/>
         <v>MaxFallSpeed_AddValue1</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C83" s="31">
         <v>1</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E83" s="31">
         <v>0</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J83" s="82" t="str">
+        <f>VLOOKUP(B83,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxFallSpeed_AddValue</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="28" t="str">
         <f t="shared" si="3"/>
         <v>MaxFallSpeed_AddRate1</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C84" s="31">
         <v>1</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E84" s="31">
         <v>0</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J84" s="82" t="str">
+        <f>VLOOKUP(B84,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxFallSpeed_AddRate</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C85" s="51">
         <v>1</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E85" s="51">
         <v>10</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H85" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I85" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J85" s="87" t="str">
+        <f>VLOOKUP(B85,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>WallClimbHight_Original</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="51">
+        <v>1</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="51">
+        <v>0</v>
+      </c>
+      <c r="F86" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="G86" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H86" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="87" t="str">
+        <f>VLOOKUP(B86,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>WallClimbHight_AddValue</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="51">
+        <v>1</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="51">
+        <v>0</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="51">
-        <v>1</v>
-      </c>
-      <c r="D86" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="51">
-        <v>0</v>
-      </c>
-      <c r="F86" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="G86" s="53" t="s">
+      <c r="H87" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J87" s="87" t="str">
+        <f>VLOOKUP(B87,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>WallClimbHight_AddRate</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="H86" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I86" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="51">
-        <v>1</v>
-      </c>
-      <c r="D87" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="51">
-        <v>0</v>
-      </c>
-      <c r="F87" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="G87" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="H87" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I87" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="B88" s="55" t="s">
-        <v>195</v>
-      </c>
       <c r="C88" s="56">
         <v>1</v>
       </c>
       <c r="D88" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E88" s="56">
         <v>2</v>
@@ -4182,27 +5205,31 @@
         <v>9</v>
       </c>
       <c r="G88" s="58" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H88" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I88" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J88" s="88" t="str">
+        <f>VLOOKUP(B88,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>WallDescentSpeed_Original</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="55" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C89" s="56">
         <v>1</v>
       </c>
       <c r="D89" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E89" s="56">
         <v>0</v>
@@ -4211,27 +5238,31 @@
         <v>9</v>
       </c>
       <c r="G89" s="58" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I89" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J89" s="88" t="str">
+        <f>VLOOKUP(B89,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>WallDescentSpeed_AddValue</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C90" s="56">
         <v>1</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E90" s="56">
         <v>0</v>
@@ -4240,1367 +5271,1755 @@
         <v>9</v>
       </c>
       <c r="G90" s="58" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H90" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I90" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J90" s="88" t="str">
+        <f>VLOOKUP(B90,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>WallDescentSpeed_AddRate</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="str">
         <f t="shared" si="3"/>
         <v>MaxDiveSpeed_Original1</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C91" s="36">
         <v>1</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E91" s="36">
         <v>20</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H91" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I91" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J91" s="83" t="str">
+        <f>VLOOKUP(B91,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxDiveSpeed_Original</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="str">
         <f t="shared" si="3"/>
         <v>MaxDiveSpeed_AddValue1</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C92" s="36">
         <v>1</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E92" s="36">
         <v>0</v>
       </c>
       <c r="F92" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H92" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I92" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J92" s="83" t="str">
+        <f>VLOOKUP(B92,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxDiveSpeed_AddValue</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="str">
         <f t="shared" si="3"/>
         <v>MaxDiveSpeed_AddRate1</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C93" s="36">
         <v>1</v>
       </c>
       <c r="D93" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E93" s="36">
         <v>0</v>
       </c>
       <c r="F93" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I93" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J93" s="83" t="str">
+        <f>VLOOKUP(B93,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>MaxDiveSpeed_AddRate</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="49" t="str">
         <f t="shared" si="3"/>
         <v>DiveAccel_Original1</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C94" s="18">
         <v>1</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E94" s="18">
         <v>100</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J94" s="86" t="str">
+        <f>VLOOKUP(B94,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveAccel_Original</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="49" t="str">
         <f t="shared" si="3"/>
         <v>DiveAccel_AddValue1</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C95" s="18">
         <v>1</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" s="18">
         <v>0</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J95" s="86" t="str">
+        <f>VLOOKUP(B95,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveAccel_AddValue</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="49" t="str">
         <f t="shared" si="3"/>
         <v>DiveAccel_AddRate1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C96" s="18">
         <v>1</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E96" s="18">
         <v>0</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J96" s="86" t="str">
+        <f>VLOOKUP(B96,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveAccel_AddRate</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="str">
         <f t="shared" si="3"/>
         <v>DiveDecel_Original1</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C97" s="38">
         <v>1</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E97" s="38">
         <v>100</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J97" s="81" t="str">
+        <f>VLOOKUP(B97,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveDecel_Original</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="str">
         <f t="shared" si="3"/>
         <v>DiveDecel_AddValue1</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C98" s="38">
         <v>1</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E98" s="38">
         <v>0</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J98" s="81" t="str">
+        <f>VLOOKUP(B98,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveDecel_AddValue</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="str">
         <f t="shared" si="3"/>
         <v>DiveDecel_AddRate1</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C99" s="38">
         <v>1</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E99" s="38">
         <v>0</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J99" s="81" t="str">
+        <f>VLOOKUP(B99,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveDecel_AddRate</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28" t="str">
         <f t="shared" si="3"/>
         <v>DiveCancelSmoothness_Original1</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C100" s="31">
         <v>1</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E100" s="31">
         <v>0.2</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I100" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J100" s="82" t="str">
+        <f>VLOOKUP(B100,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveCancelSmoothness_Original</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28" t="str">
         <f t="shared" si="3"/>
         <v>DiveCancelSmoothness_AddValue1</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C101" s="31">
         <v>1</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" s="31">
         <v>0</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J101" s="82" t="str">
+        <f>VLOOKUP(B101,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveCancelSmoothness_AddValue</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="28" t="str">
         <f t="shared" si="3"/>
         <v>DiveCancelSmoothness_AddRate1</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C102" s="31">
         <v>1</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E102" s="31">
         <v>0</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J102" s="82" t="str">
+        <f>VLOOKUP(B102,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DiveCancelSmoothness_AddRate</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="33" t="str">
         <f t="shared" si="3"/>
         <v>HitInvincibilityTime_Original1</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C103" s="36">
         <v>1</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E103" s="36">
         <v>2</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J103" s="83" t="str">
+        <f>VLOOKUP(B103,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>HitInvincibilityTime_Original</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="33" t="str">
         <f t="shared" si="3"/>
         <v>HitInvincibilityTime_AddValue1</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C104" s="36">
         <v>1</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E104" s="36">
         <v>0</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J104" s="83" t="str">
+        <f>VLOOKUP(B104,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>HitInvincibilityTime_AddValue</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="33" t="str">
         <f t="shared" si="3"/>
         <v>HitInvincibilityTime_AddRate1</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C105" s="36">
         <v>1</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E105" s="36">
         <v>0</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J105" s="83" t="str">
+        <f>VLOOKUP(B105,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>HitInvincibilityTime_AddRate</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Friction_Original1</v>
       </c>
       <c r="B106" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C106" s="18">
         <v>1</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E106" s="18">
         <v>1</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J106" s="86" t="str">
+        <f>VLOOKUP(B106,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>Friction_Original</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Friction_AddValue1</v>
       </c>
       <c r="B107" s="49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C107" s="18">
         <v>1</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E107" s="18">
         <v>0</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J107" s="86" t="str">
+        <f>VLOOKUP(B107,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>Friction_AddValue</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Friction_AddRate1</v>
       </c>
       <c r="B108" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C108" s="18">
         <v>1</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E108" s="18">
         <v>0</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J108" s="86" t="str">
+        <f>VLOOKUP(B108,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>Friction_AddRate</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="str">
         <f t="shared" si="3"/>
         <v>AddEnemyDetectPoint_Original1</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C109" s="38">
         <v>1</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E109" s="38">
         <v>1</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I109" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J109" s="81" t="str">
+        <f>VLOOKUP(B109,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddEnemyDetectPoint_Original</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="str">
         <f t="shared" si="3"/>
         <v>AddEnemyDetectPoint_AddValue1</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C110" s="38">
         <v>1</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E110" s="38">
         <v>0</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J110" s="81" t="str">
+        <f>VLOOKUP(B110,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddEnemyDetectPoint_AddValue</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="str">
         <f t="shared" si="3"/>
         <v>AddEnemyDetectPoint_AddRate1</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C111" s="38">
         <v>1</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E111" s="38">
         <v>0</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J111" s="81" t="str">
+        <f>VLOOKUP(B111,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddEnemyDetectPoint_AddRate</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="39" t="str">
         <f t="shared" si="3"/>
         <v>AddFrightenDetectPoint_Original1</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C112" s="40">
         <v>1</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E112" s="40">
         <v>1</v>
       </c>
       <c r="F112" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I112" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J112" s="84" t="str">
+        <f>VLOOKUP(B112,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddFrightenDetectPoint_Original</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="39" t="str">
-        <f t="shared" ref="A113:A123" si="4">B113&amp;C113</f>
+        <f t="shared" ref="A113:A128" si="4">B113&amp;C113</f>
         <v>AddFrightenDetectPoint_AddValue1</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C113" s="40">
         <v>1</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E113" s="40">
         <v>0</v>
       </c>
       <c r="F113" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I113" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J113" s="84" t="str">
+        <f>VLOOKUP(B113,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddFrightenDetectPoint_AddValue</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="39" t="str">
         <f t="shared" si="4"/>
         <v>AddFrightenDetectPoint_AddRate1</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C114" s="40">
         <v>1</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E114" s="40">
         <v>0</v>
       </c>
       <c r="F114" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I114" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="26" t="str">
+        <v>31</v>
+      </c>
+      <c r="J114" s="84" t="str">
+        <f>VLOOKUP(B114,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddFrightenDetectPoint_AddRate</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v>AddNeutralDetectPoint_Origianl1</v>
+      </c>
+      <c r="B115" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="70">
+        <v>1</v>
+      </c>
+      <c r="D115" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="70">
+        <v>1</v>
+      </c>
+      <c r="F115" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="H115" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="89" t="str">
+        <f>VLOOKUP(B115,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddNeutralDetectPoint_Origianl</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v>AddNeutralDetectPoint_AddValue1</v>
+      </c>
+      <c r="B116" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="70">
+        <v>1</v>
+      </c>
+      <c r="D116" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="70">
+        <v>0</v>
+      </c>
+      <c r="F116" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="H116" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" s="89" t="str">
+        <f>VLOOKUP(B116,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddNeutralDetectPoint_AddValue</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v>AddNeutralDetectPoint_AddRate1</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="70">
+        <v>1</v>
+      </c>
+      <c r="D117" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="70">
+        <v>0</v>
+      </c>
+      <c r="F117" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="H117" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="89" t="str">
+        <f>VLOOKUP(B117,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>AddNeutralDetectPoint_AddRate</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="26" t="str">
         <f t="shared" si="4"/>
         <v>SubEnemyDetectPoint_Original1</v>
       </c>
-      <c r="B115" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="38">
-        <v>1</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="38">
-        <v>1</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H115" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I115" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="str">
+      <c r="B118" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="38">
+        <v>1</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="38">
+        <v>1</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="81" t="str">
+        <f>VLOOKUP(B118,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubEnemyDetectPoint_Original</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="26" t="str">
         <f t="shared" si="4"/>
         <v>SubEnemyDetectPoint_AddValue1</v>
       </c>
-      <c r="B116" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" s="38">
-        <v>1</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E116" s="38">
-        <v>0</v>
-      </c>
-      <c r="F116" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H116" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I116" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="str">
+      <c r="B119" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="38">
+        <v>1</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="38">
+        <v>0</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="81" t="str">
+        <f>VLOOKUP(B119,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubEnemyDetectPoint_AddValue</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="26" t="str">
         <f t="shared" si="4"/>
         <v>SubEnemyDetectPoint_AddRate1</v>
       </c>
-      <c r="B117" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" s="38">
-        <v>1</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E117" s="38">
-        <v>0</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I117" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="str">
+      <c r="B120" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="38">
+        <v>1</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="38">
+        <v>0</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="81" t="str">
+        <f>VLOOKUP(B120,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubEnemyDetectPoint_AddRate</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="39" t="str">
         <f t="shared" si="4"/>
         <v>SubFrightenDetectPoint_Original1</v>
       </c>
-      <c r="B118" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="40">
-        <v>1</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E118" s="40">
-        <v>1</v>
-      </c>
-      <c r="F118" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="H118" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I118" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="str">
+      <c r="B121" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="40">
+        <v>1</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="40">
+        <v>1</v>
+      </c>
+      <c r="F121" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H121" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="84" t="str">
+        <f>VLOOKUP(B121,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubFrightenDetectPoint_Original</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="39" t="str">
         <f t="shared" si="4"/>
         <v>SubFrightenDetectPoint_AddValue1</v>
       </c>
-      <c r="B119" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="40">
-        <v>1</v>
-      </c>
-      <c r="D119" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" s="40">
-        <v>0</v>
-      </c>
-      <c r="F119" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H119" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I119" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="str">
+      <c r="B122" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="40">
+        <v>1</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="40">
+        <v>0</v>
+      </c>
+      <c r="F122" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H122" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="84" t="str">
+        <f>VLOOKUP(B122,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubFrightenDetectPoint_AddValue</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="39" t="str">
         <f t="shared" si="4"/>
         <v>SubFrightenDetectPoint_AddRate1</v>
       </c>
-      <c r="B120" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C120" s="40">
-        <v>1</v>
-      </c>
-      <c r="D120" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E120" s="40">
-        <v>0</v>
-      </c>
-      <c r="F120" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H120" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I120" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="str">
+      <c r="B123" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="40">
+        <v>1</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" s="40">
+        <v>0</v>
+      </c>
+      <c r="F123" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H123" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="84" t="str">
+        <f>VLOOKUP(B123,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubFrightenDetectPoint_AddRate</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v>SubNeutralDetectPoint_Original1</v>
+      </c>
+      <c r="B124" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" s="71">
+        <v>1</v>
+      </c>
+      <c r="D124" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="71">
+        <v>1</v>
+      </c>
+      <c r="F124" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H124" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="89" t="str">
+        <f>VLOOKUP(B124,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubNeutralDetectPoint_Original</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v>SubNeutralDetectPoint_AddValue1</v>
+      </c>
+      <c r="B125" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="71">
+        <v>1</v>
+      </c>
+      <c r="D125" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="71">
+        <v>0</v>
+      </c>
+      <c r="F125" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="H125" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="89" t="str">
+        <f>VLOOKUP(B125,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubNeutralDetectPoint_AddValue</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v>SubNeutralDetectPoint_AddRate1</v>
+      </c>
+      <c r="B126" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="71">
+        <v>1</v>
+      </c>
+      <c r="D126" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="71">
+        <v>0</v>
+      </c>
+      <c r="F126" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="89" t="str">
+        <f>VLOOKUP(B126,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>SubNeutralDetectPoint_AddRate</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="26" t="str">
         <f t="shared" si="4"/>
         <v>DetectedCoefficient_Original1</v>
       </c>
-      <c r="B121" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="38">
-        <v>1</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="38">
-        <v>1</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H121" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I121" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="str">
+      <c r="B127" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="38">
+        <v>1</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="38">
+        <v>1</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="81" t="str">
+        <f>VLOOKUP(B127,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DetectedCoefficient_Original</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="26" t="str">
         <f t="shared" si="4"/>
         <v>DetectedCoefficient_AddValue1</v>
       </c>
-      <c r="B122" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C122" s="38">
-        <v>1</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="38">
-        <v>0</v>
-      </c>
-      <c r="F122" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H122" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I122" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="str">
-        <f t="shared" si="4"/>
+      <c r="B128" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="38">
+        <v>1</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="38">
+        <v>0</v>
+      </c>
+      <c r="F128" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="90" t="str">
+        <f>VLOOKUP(B128,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DetectedCoefficient_AddValue</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="26" t="str">
+        <f>B129&amp;C129</f>
         <v>DetectedCoefficient_AddRate1</v>
       </c>
-      <c r="B123" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="38">
-        <v>1</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E123" s="38">
-        <v>0</v>
-      </c>
-      <c r="F123" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H123" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I123" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="str">
-        <f>B124&amp;C124</f>
+      <c r="B129" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" s="38">
+        <v>1</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="38">
+        <v>0</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="90" t="str">
+        <f>VLOOKUP(B129,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>DetectedCoefficient_AddRate</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="19" t="str">
+        <f>B130&amp;C130</f>
         <v>BlinkSkillLevel_Original0</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B130" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="20">
+        <v>0</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="20">
+        <v>0</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I130" s="19">
+        <v>1</v>
+      </c>
+      <c r="J130" s="80" t="str">
+        <f>VLOOKUP(B130,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkSkillLevel_Original</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="19" t="str">
+        <f>B131&amp;C131</f>
+        <v>BlinkSkillLevel_Original1</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="20">
+        <v>1</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I131" s="19">
+        <v>1</v>
+      </c>
+      <c r="J131" s="80" t="str">
+        <f>VLOOKUP(B131,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkSkillLevel_Original</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="19" t="str">
+        <f>B132&amp;C132</f>
+        <v>BlinkSkillLevel_Original2</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="20">
+        <v>2</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="20">
+        <v>2</v>
+      </c>
+      <c r="F132" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I132" s="19">
+        <v>1</v>
+      </c>
+      <c r="J132" s="80" t="str">
+        <f>VLOOKUP(B132,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkSkillLevel_Original</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="66" t="str">
+        <f>B133&amp;C133</f>
+        <v>BlinkDistance_Original0</v>
+      </c>
+      <c r="B133" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="67">
+        <v>0</v>
+      </c>
+      <c r="D133" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E133" s="67">
+        <v>0</v>
+      </c>
+      <c r="F133" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G133" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C124" s="20">
-        <v>0</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="20">
-        <v>0</v>
-      </c>
-      <c r="F124" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="H124" s="19" t="s">
+      <c r="H133" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="I124" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="str">
-        <f>B125&amp;C125</f>
-        <v>BlinkSkillLevel_Original1</v>
-      </c>
-      <c r="B125" s="19" t="s">
+      <c r="I133" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="J133" s="91" t="str">
+        <f>VLOOKUP(B133,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkDistance_Original</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="66" t="str">
+        <f t="shared" ref="A134:A140" si="5">B134&amp;C134</f>
+        <v>BlinkDistance_Original1</v>
+      </c>
+      <c r="B134" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C134" s="67">
+        <v>1</v>
+      </c>
+      <c r="D134" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E134" s="67">
+        <v>7</v>
+      </c>
+      <c r="F134" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G134" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="20">
-        <v>1</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="20">
-        <v>1</v>
-      </c>
-      <c r="F125" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H125" s="19" t="s">
+      <c r="H134" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="I125" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="str">
-        <f>B126&amp;C126</f>
-        <v>BlinkSkillLevel_Original2</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="20">
-        <v>2</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="20">
-        <v>2</v>
-      </c>
-      <c r="F126" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="H126" s="19" t="s">
+      <c r="I134" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="I126" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="66" t="str">
-        <f>B127&amp;C127</f>
-        <v>BlinkDistance_Original0</v>
-      </c>
-      <c r="B127" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="67">
-        <v>0</v>
-      </c>
-      <c r="D127" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="E127" s="67">
-        <v>0</v>
-      </c>
-      <c r="F127" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="G127" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="H127" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="I127" s="66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="66" t="str">
-        <f t="shared" ref="A128:A134" si="5">B128&amp;C128</f>
-        <v>BlinkDistance_Original1</v>
-      </c>
-      <c r="B128" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" s="67">
-        <v>1</v>
-      </c>
-      <c r="D128" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="E128" s="67">
-        <v>7</v>
-      </c>
-      <c r="F128" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="G128" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="H128" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="I128" s="66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="66" t="str">
+      <c r="J134" s="91" t="str">
+        <f>VLOOKUP(B134,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkDistance_Original</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="66" t="str">
         <f t="shared" si="5"/>
         <v>BlinkDistance_Original2</v>
       </c>
-      <c r="B129" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C129" s="67">
+      <c r="B135" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="67">
         <v>2</v>
       </c>
-      <c r="D129" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="E129" s="67">
-        <v>9</v>
-      </c>
-      <c r="F129" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="G129" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="H129" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="I129" s="66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="66" t="str">
+      <c r="D135" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E135" s="67">
+        <v>9</v>
+      </c>
+      <c r="F135" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G135" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H135" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="I135" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="J135" s="91" t="str">
+        <f>VLOOKUP(B135,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkDistance_Original</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="66" t="str">
         <f t="shared" si="5"/>
         <v>BlinkDistance_AddValue0</v>
       </c>
-      <c r="B130" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="C130" s="67">
-        <v>0</v>
-      </c>
-      <c r="D130" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" s="67">
-        <v>0</v>
-      </c>
-      <c r="F130" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="G130" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="H130" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="66" t="str">
+      <c r="B136" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C136" s="67">
+        <v>0</v>
+      </c>
+      <c r="D136" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="67">
+        <v>0</v>
+      </c>
+      <c r="F136" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="G136" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="H136" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I136" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J136" s="91" t="str">
+        <f>VLOOKUP(B136,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkDistance_AddValue</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="66" t="str">
         <f t="shared" si="5"/>
         <v>BlinkDistance_AddRate0</v>
       </c>
-      <c r="B131" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="C131" s="67">
-        <v>0</v>
-      </c>
-      <c r="D131" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="67">
-        <v>0</v>
-      </c>
-      <c r="F131" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="G131" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="H131" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I131" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="37" t="str">
+      <c r="B137" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C137" s="67">
+        <v>0</v>
+      </c>
+      <c r="D137" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" s="67">
+        <v>0</v>
+      </c>
+      <c r="F137" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="G137" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="H137" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I137" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J137" s="91" t="str">
+        <f>VLOOKUP(B137,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkDistance_AddRate</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="37" t="str">
         <f t="shared" si="5"/>
         <v>BlinkAtkPower_Original0</v>
       </c>
-      <c r="B132" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C132" s="22">
-        <v>0</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E132" s="22">
-        <v>0</v>
-      </c>
-      <c r="F132" s="22" t="s">
+      <c r="B138" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="22">
+        <v>0</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E138" s="22">
+        <v>0</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G138" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G132" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="H132" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="I132" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="str">
+      <c r="H138" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I138" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="J138" s="85" t="str">
+        <f>VLOOKUP(B138,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkAtkPower_Original</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="37" t="str">
         <f t="shared" si="5"/>
         <v>BlinkAtkPower_Original2</v>
       </c>
-      <c r="B133" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C133" s="22">
+      <c r="B139" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="22">
         <v>2</v>
       </c>
-      <c r="D133" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E133" s="22">
+      <c r="D139" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E139" s="22">
         <v>1.5</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="F139" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G139" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G133" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="H133" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="I133" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="37" t="str">
+      <c r="H139" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I139" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="J139" s="85" t="str">
+        <f>VLOOKUP(B139,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkAtkPower_Original</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="37" t="str">
         <f t="shared" si="5"/>
         <v>BlinkAtkPower_AddValue0</v>
       </c>
-      <c r="B134" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C134" s="22">
-        <v>0</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" s="22">
-        <v>0</v>
-      </c>
-      <c r="F134" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G134" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="H134" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="37" t="str">
-        <f t="shared" ref="A135" si="6">B135&amp;C135</f>
+      <c r="B140" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="C140" s="22">
+        <v>0</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="22">
+        <v>0</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="H140" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J140" s="85" t="str">
+        <f>VLOOKUP(B140,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkAtkPower_AddValue</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="37" t="str">
+        <f t="shared" ref="A141" si="6">B141&amp;C141</f>
         <v>BlinkAtkPower_AddRate0</v>
       </c>
-      <c r="B135" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C135" s="22">
-        <v>0</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E135" s="22">
-        <v>0</v>
-      </c>
-      <c r="F135" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H135" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I135" s="37" t="s">
-        <v>9</v>
+      <c r="B141" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C141" s="22">
+        <v>0</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="22">
+        <v>0</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="H141" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J141" s="85" t="str">
+        <f>VLOOKUP(B141,[1]Stat!$A:$A,1,FALSE)</f>
+        <v>BlinkAtkPower_AddRate</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I121" xr:uid="{4A302257-2F9E-4E0B-B60A-04456D59DDB5}"/>
+  <autoFilter ref="A2:I123" xr:uid="{4A302257-2F9E-4E0B-B60A-04456D59DDB5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
